--- a/document/项目计划进度表.xlsx
+++ b/document/项目计划进度表.xlsx
@@ -161,10 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>负责人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -252,6 +248,10 @@
   </si>
   <si>
     <t>12.1-12.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -303,11 +303,11 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -605,7 +605,7 @@
   <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -617,316 +617,316 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
-      <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
+    <row r="11" spans="1:21">
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="B11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="B12" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>28</v>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>38</v>
+      <c r="C14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
-      <c r="B16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="3" t="s">
+    </row>
+    <row r="19" spans="1:4">
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="B19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" t="s">
-        <v>43</v>
-      </c>
-    </row>
     <row r="20" spans="1:4">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>41</v>
+      <c r="C20" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="13.5" customHeight="1"/>
@@ -934,135 +934,135 @@
       <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="B23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="B23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="B24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="3" t="s">
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" t="s">
+    <row r="28" spans="1:4">
+      <c r="B28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="B28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" t="s">
+    <row r="33" spans="2:4">
+      <c r="B33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="B29" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" t="s">
+    <row r="34" spans="2:4">
+      <c r="B34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="B30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
